--- a/AAII_Financials/Quarterly/RUHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RUHN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>RUHN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39100</v>
+        <v>67500</v>
       </c>
       <c r="E8" s="3">
-        <v>44900</v>
+        <v>38200</v>
       </c>
       <c r="F8" s="3">
-        <v>34000</v>
+        <v>43800</v>
       </c>
       <c r="G8" s="3">
-        <v>55300</v>
+        <v>33200</v>
       </c>
       <c r="H8" s="3">
-        <v>34100</v>
+        <v>53900</v>
       </c>
       <c r="I8" s="3">
-        <v>33400</v>
+        <v>33300</v>
       </c>
       <c r="J8" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K8" s="3">
         <v>28200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F9" s="3">
+        <v>28200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>25400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>33300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K9" s="3">
         <v>22100</v>
       </c>
-      <c r="E9" s="3">
-        <v>28900</v>
-      </c>
-      <c r="F9" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>34100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>22500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>25100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>22100</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17100</v>
+        <v>24500</v>
       </c>
       <c r="E10" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="F10" s="3">
-        <v>8000</v>
+        <v>15600</v>
       </c>
       <c r="G10" s="3">
-        <v>21200</v>
+        <v>7800</v>
       </c>
       <c r="H10" s="3">
-        <v>11600</v>
+        <v>20700</v>
       </c>
       <c r="I10" s="3">
-        <v>8300</v>
+        <v>11300</v>
       </c>
       <c r="J10" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K10" s="3">
         <v>6100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>48400</v>
+        <v>66200</v>
       </c>
       <c r="E17" s="3">
-        <v>48900</v>
+        <v>47200</v>
       </c>
       <c r="F17" s="3">
-        <v>39000</v>
+        <v>47700</v>
       </c>
       <c r="G17" s="3">
-        <v>53200</v>
+        <v>38000</v>
       </c>
       <c r="H17" s="3">
-        <v>76500</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3">
+        <v>51900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>74600</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>36700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-9300</v>
+        <v>1200</v>
       </c>
       <c r="E18" s="3">
-        <v>-4000</v>
+        <v>-9100</v>
       </c>
       <c r="F18" s="3">
-        <v>-4900</v>
+        <v>-3900</v>
       </c>
       <c r="G18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
-        <v>-42300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,37 +1042,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="E20" s="3">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="F20" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>40200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I20" s="3">
+        <v>39200</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1050,26 +1086,29 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
-        <v>-3200</v>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H21" s="3">
         <v>2200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,8 +1118,8 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1097,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7500</v>
+        <v>2000</v>
       </c>
       <c r="E23" s="3">
-        <v>-3600</v>
+        <v>-7400</v>
       </c>
       <c r="F23" s="3">
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
       <c r="G23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
-        <v>-6700</v>
-      </c>
       <c r="J23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7400</v>
+        <v>1500</v>
       </c>
       <c r="E26" s="3">
-        <v>-4100</v>
+        <v>-7200</v>
       </c>
       <c r="F26" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="G26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="I26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>-9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7200</v>
+        <v>1500</v>
       </c>
       <c r="E27" s="3">
-        <v>-3800</v>
+        <v>-7000</v>
       </c>
       <c r="F27" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="G27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="I27" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1800</v>
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
-        <v>-500</v>
+        <v>-1700</v>
       </c>
       <c r="F32" s="3">
-        <v>-1200</v>
+        <v>-400</v>
       </c>
       <c r="G32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-40200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I32" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7200</v>
+        <v>1500</v>
       </c>
       <c r="E33" s="3">
-        <v>-3800</v>
+        <v>-7000</v>
       </c>
       <c r="F33" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="G33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="I33" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>-9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7200</v>
+        <v>1500</v>
       </c>
       <c r="E35" s="3">
-        <v>-3800</v>
+        <v>-7000</v>
       </c>
       <c r="F35" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="G35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="I35" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>-9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,28 +1619,29 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107000</v>
+        <v>115400</v>
       </c>
       <c r="E41" s="3">
-        <v>102400</v>
+        <v>104400</v>
       </c>
       <c r="F41" s="3">
-        <v>12900</v>
+        <v>99900</v>
       </c>
       <c r="G41" s="3">
-        <v>22500</v>
+        <v>12600</v>
       </c>
       <c r="H41" s="3">
-        <v>15700</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
+        <v>21900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>15400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
@@ -1563,19 +1649,22 @@
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="E42" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+        <v>2800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1592,28 +1681,31 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="E43" s="3">
-        <v>10400</v>
+        <v>13600</v>
       </c>
       <c r="F43" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="G43" s="3">
-        <v>8600</v>
+        <v>10000</v>
       </c>
       <c r="H43" s="3">
-        <v>10300</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
+        <v>8400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>10000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -1621,28 +1713,31 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24900</v>
+        <v>27900</v>
       </c>
       <c r="E44" s="3">
-        <v>27900</v>
+        <v>24300</v>
       </c>
       <c r="F44" s="3">
-        <v>31600</v>
+        <v>27200</v>
       </c>
       <c r="G44" s="3">
-        <v>41600</v>
+        <v>30800</v>
       </c>
       <c r="H44" s="3">
-        <v>42800</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+        <v>40500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>41700</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -1650,28 +1745,31 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4900</v>
+        <v>6700</v>
       </c>
       <c r="E45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H45" s="3">
         <v>6500</v>
       </c>
-      <c r="F45" s="3">
-        <v>6700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+      <c r="I45" s="3">
+        <v>6100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -1679,28 +1777,31 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>153700</v>
+        <v>166900</v>
       </c>
       <c r="E46" s="3">
-        <v>150000</v>
+        <v>149900</v>
       </c>
       <c r="F46" s="3">
-        <v>61500</v>
+        <v>146400</v>
       </c>
       <c r="G46" s="3">
-        <v>79300</v>
+        <v>60000</v>
       </c>
       <c r="H46" s="3">
-        <v>75100</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
+        <v>77300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>73200</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -1708,86 +1809,95 @@
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="E47" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="F47" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G47" s="3">
         <v>1100</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24400</v>
+        <v>25900</v>
       </c>
       <c r="E48" s="3">
-        <v>22000</v>
+        <v>23800</v>
       </c>
       <c r="F48" s="3">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="G48" s="3">
-        <v>18800</v>
+        <v>20400</v>
       </c>
       <c r="H48" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="E49" s="3">
-        <v>14400</v>
+        <v>13200</v>
       </c>
       <c r="F49" s="3">
-        <v>15100</v>
+        <v>14000</v>
       </c>
       <c r="G49" s="3">
-        <v>600</v>
+        <v>14800</v>
       </c>
       <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="I49" s="3">
+        <v>600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1862,28 +1981,31 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,28 +2033,31 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>204600</v>
+        <v>217900</v>
       </c>
       <c r="E54" s="3">
-        <v>199500</v>
+        <v>199600</v>
       </c>
       <c r="F54" s="3">
-        <v>98900</v>
+        <v>194600</v>
       </c>
       <c r="G54" s="3">
-        <v>98900</v>
+        <v>96500</v>
       </c>
       <c r="H54" s="3">
-        <v>76700</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
+        <v>96500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>74800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,28 +2095,29 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16100</v>
+        <v>27000</v>
       </c>
       <c r="E57" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="F57" s="3">
-        <v>11200</v>
+        <v>15000</v>
       </c>
       <c r="G57" s="3">
-        <v>21600</v>
+        <v>10900</v>
       </c>
       <c r="H57" s="3">
-        <v>19200</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
+        <v>21100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>18700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -1995,28 +2125,31 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H58" s="3">
         <v>4100</v>
       </c>
-      <c r="F58" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="I58" s="3">
+        <v>1400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2024,28 +2157,31 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13800</v>
+        <v>18800</v>
       </c>
       <c r="E59" s="3">
-        <v>15900</v>
+        <v>13500</v>
       </c>
       <c r="F59" s="3">
-        <v>94500</v>
+        <v>15500</v>
       </c>
       <c r="G59" s="3">
-        <v>95600</v>
+        <v>92200</v>
       </c>
       <c r="H59" s="3">
-        <v>87100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+        <v>93300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>84900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -2053,28 +2189,31 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31200</v>
+        <v>46600</v>
       </c>
       <c r="E60" s="3">
-        <v>35400</v>
+        <v>30400</v>
       </c>
       <c r="F60" s="3">
-        <v>110200</v>
+        <v>34500</v>
       </c>
       <c r="G60" s="3">
-        <v>121500</v>
+        <v>107500</v>
       </c>
       <c r="H60" s="3">
-        <v>107800</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
+        <v>118500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>105100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
@@ -2082,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2091,14 +2233,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="F61" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2111,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E62" s="3">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
       <c r="H62" s="3">
+        <v>200</v>
+      </c>
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,28 +2381,31 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33800</v>
+        <v>49200</v>
       </c>
       <c r="E66" s="3">
-        <v>38400</v>
+        <v>33000</v>
       </c>
       <c r="F66" s="3">
-        <v>111900</v>
+        <v>37400</v>
       </c>
       <c r="G66" s="3">
-        <v>120100</v>
+        <v>109200</v>
       </c>
       <c r="H66" s="3">
-        <v>107300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
+        <v>117100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>104600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,28 +2555,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-44400</v>
+        <v>-41800</v>
       </c>
       <c r="E72" s="3">
-        <v>-37200</v>
+        <v>-43300</v>
       </c>
       <c r="F72" s="3">
-        <v>-33400</v>
+        <v>-36300</v>
       </c>
       <c r="G72" s="3">
-        <v>-29300</v>
+        <v>-32600</v>
       </c>
       <c r="H72" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
+        <v>-28600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-30800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,28 +2683,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>170800</v>
+        <v>168700</v>
       </c>
       <c r="E76" s="3">
-        <v>161100</v>
+        <v>166600</v>
       </c>
       <c r="F76" s="3">
-        <v>-13000</v>
+        <v>157200</v>
       </c>
       <c r="G76" s="3">
-        <v>-21200</v>
+        <v>-12700</v>
       </c>
       <c r="H76" s="3">
-        <v>-30600</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
+        <v>-20600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-29800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7200</v>
+        <v>1500</v>
       </c>
       <c r="E81" s="3">
-        <v>-3800</v>
+        <v>-7000</v>
       </c>
       <c r="F81" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="G81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="I81" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>-9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2646,15 +2844,15 @@
       <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3">
-        <v>600</v>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,25 +3022,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>12600</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="3">
-        <v>-7900</v>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G89" s="3">
-        <v>11900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
+        <v>-7700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>11600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
@@ -2838,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2862,15 +3082,15 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,26 +3164,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-1200</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,25 +3338,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
-        <v>-1300</v>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G100" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
+        <v>-1200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-3400</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
@@ -3125,54 +3370,60 @@
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>11100</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="3">
-        <v>-9700</v>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G102" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
+        <v>-9500</v>
+      </c>
+      <c r="H102" s="3">
+        <v>8000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
@@ -3181,6 +3432,9 @@
         <v>8</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RUHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RUHN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>RUHN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>67500</v>
+        <v>33100</v>
       </c>
       <c r="E8" s="3">
-        <v>38200</v>
+        <v>70000</v>
       </c>
       <c r="F8" s="3">
-        <v>43800</v>
+        <v>39600</v>
       </c>
       <c r="G8" s="3">
-        <v>33200</v>
+        <v>45400</v>
       </c>
       <c r="H8" s="3">
-        <v>53900</v>
+        <v>34500</v>
       </c>
       <c r="I8" s="3">
-        <v>33300</v>
+        <v>56000</v>
       </c>
       <c r="J8" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K8" s="3">
         <v>32600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>43000</v>
+        <v>20900</v>
       </c>
       <c r="E9" s="3">
-        <v>21500</v>
+        <v>44600</v>
       </c>
       <c r="F9" s="3">
-        <v>28200</v>
+        <v>22300</v>
       </c>
       <c r="G9" s="3">
-        <v>25400</v>
+        <v>29200</v>
       </c>
       <c r="H9" s="3">
-        <v>33300</v>
+        <v>26400</v>
       </c>
       <c r="I9" s="3">
-        <v>22000</v>
+        <v>34500</v>
       </c>
       <c r="J9" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K9" s="3">
         <v>24500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24500</v>
+        <v>12200</v>
       </c>
       <c r="E10" s="3">
-        <v>16700</v>
+        <v>25400</v>
       </c>
       <c r="F10" s="3">
-        <v>15600</v>
+        <v>17300</v>
       </c>
       <c r="G10" s="3">
-        <v>7800</v>
+        <v>16200</v>
       </c>
       <c r="H10" s="3">
-        <v>20700</v>
+        <v>8100</v>
       </c>
       <c r="I10" s="3">
-        <v>11300</v>
+        <v>21400</v>
       </c>
       <c r="J10" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K10" s="3">
         <v>8100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>66200</v>
+        <v>38100</v>
       </c>
       <c r="E17" s="3">
-        <v>47200</v>
+        <v>68700</v>
       </c>
       <c r="F17" s="3">
-        <v>47700</v>
+        <v>49000</v>
       </c>
       <c r="G17" s="3">
-        <v>38000</v>
+        <v>49400</v>
       </c>
       <c r="H17" s="3">
-        <v>51900</v>
+        <v>39400</v>
       </c>
       <c r="I17" s="3">
-        <v>74600</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+        <v>53800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>36700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1200</v>
+        <v>-5000</v>
       </c>
       <c r="E18" s="3">
-        <v>-9100</v>
+        <v>1300</v>
       </c>
       <c r="F18" s="3">
-        <v>-3900</v>
+        <v>-9400</v>
       </c>
       <c r="G18" s="3">
-        <v>-4800</v>
+        <v>-4000</v>
       </c>
       <c r="H18" s="3">
-        <v>2000</v>
+        <v>-4900</v>
       </c>
       <c r="I18" s="3">
-        <v>-41300</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>-8500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,60 +1076,64 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>1700</v>
-      </c>
       <c r="F20" s="3">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>39200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
-        <v>-3100</v>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H21" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+        <v>-3300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1104,16 +1141,19 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1121,8 +1161,8 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1139,72 +1179,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2000</v>
+        <v>-3800</v>
       </c>
       <c r="E23" s="3">
-        <v>-7400</v>
+        <v>2100</v>
       </c>
       <c r="F23" s="3">
-        <v>-3500</v>
+        <v>-7600</v>
       </c>
       <c r="G23" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="H23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
-        <v>-2100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>500</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-7200</v>
-      </c>
       <c r="F26" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="J26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>-9100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1500</v>
+        <v>-3800</v>
       </c>
       <c r="E27" s="3">
-        <v>-7000</v>
+        <v>1600</v>
       </c>
       <c r="F27" s="3">
-        <v>-3700</v>
+        <v>-7300</v>
       </c>
       <c r="G27" s="3">
         <v>-3900</v>
       </c>
       <c r="H27" s="3">
-        <v>2200</v>
+        <v>-4100</v>
       </c>
       <c r="I27" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F32" s="3">
-        <v>-400</v>
+        <v>-1800</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-39200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1500</v>
+        <v>-3800</v>
       </c>
       <c r="E33" s="3">
-        <v>-7000</v>
+        <v>1600</v>
       </c>
       <c r="F33" s="3">
-        <v>-3700</v>
+        <v>-7300</v>
       </c>
       <c r="G33" s="3">
         <v>-3900</v>
       </c>
       <c r="H33" s="3">
-        <v>2200</v>
+        <v>-4100</v>
       </c>
       <c r="I33" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>-9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1500</v>
+        <v>-3800</v>
       </c>
       <c r="E35" s="3">
-        <v>-7000</v>
+        <v>1600</v>
       </c>
       <c r="F35" s="3">
-        <v>-3700</v>
+        <v>-7300</v>
       </c>
       <c r="G35" s="3">
         <v>-3900</v>
       </c>
       <c r="H35" s="3">
-        <v>2200</v>
+        <v>-4100</v>
       </c>
       <c r="I35" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>-9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,31 +1706,32 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>115400</v>
+        <v>104300</v>
       </c>
       <c r="E41" s="3">
-        <v>104400</v>
+        <v>119700</v>
       </c>
       <c r="F41" s="3">
-        <v>99900</v>
+        <v>108300</v>
       </c>
       <c r="G41" s="3">
-        <v>12600</v>
+        <v>103600</v>
       </c>
       <c r="H41" s="3">
-        <v>21900</v>
+        <v>13100</v>
       </c>
       <c r="I41" s="3">
-        <v>15400</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
+        <v>22700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>15900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
@@ -1652,22 +1739,25 @@
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3100</v>
+        <v>11100</v>
       </c>
       <c r="E42" s="3">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="F42" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
+        <v>2900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1684,31 +1774,34 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="E43" s="3">
-        <v>13600</v>
+        <v>14400</v>
       </c>
       <c r="F43" s="3">
-        <v>10100</v>
+        <v>14100</v>
       </c>
       <c r="G43" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="H43" s="3">
-        <v>8400</v>
+        <v>10400</v>
       </c>
       <c r="I43" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+        <v>8700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -1716,31 +1809,34 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27900</v>
+        <v>21100</v>
       </c>
       <c r="E44" s="3">
-        <v>24300</v>
+        <v>28900</v>
       </c>
       <c r="F44" s="3">
-        <v>27200</v>
+        <v>25200</v>
       </c>
       <c r="G44" s="3">
-        <v>30800</v>
+        <v>28200</v>
       </c>
       <c r="H44" s="3">
-        <v>40500</v>
+        <v>32000</v>
       </c>
       <c r="I44" s="3">
-        <v>41700</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+        <v>42100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>43300</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -1748,31 +1844,34 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="E45" s="3">
-        <v>4800</v>
+        <v>6900</v>
       </c>
       <c r="F45" s="3">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="G45" s="3">
         <v>6600</v>
       </c>
       <c r="H45" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="I45" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+        <v>6700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>6400</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -1780,31 +1879,34 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>166900</v>
+        <v>156300</v>
       </c>
       <c r="E46" s="3">
-        <v>149900</v>
+        <v>173200</v>
       </c>
       <c r="F46" s="3">
-        <v>146400</v>
+        <v>155600</v>
       </c>
       <c r="G46" s="3">
-        <v>60000</v>
+        <v>151900</v>
       </c>
       <c r="H46" s="3">
-        <v>77300</v>
+        <v>62200</v>
       </c>
       <c r="I46" s="3">
-        <v>73200</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
+        <v>80200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>76000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
@@ -1812,63 +1914,69 @@
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="E47" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="F47" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="G47" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H47" s="3">
         <v>1100</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25900</v>
+        <v>26600</v>
       </c>
       <c r="E48" s="3">
-        <v>23800</v>
+        <v>26900</v>
       </c>
       <c r="F48" s="3">
-        <v>21500</v>
+        <v>24700</v>
       </c>
       <c r="G48" s="3">
-        <v>20400</v>
+        <v>22300</v>
       </c>
       <c r="H48" s="3">
-        <v>18400</v>
+        <v>21200</v>
       </c>
       <c r="I48" s="3">
-        <v>700</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
+        <v>19100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1876,31 +1984,34 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="E49" s="3">
-        <v>13200</v>
+        <v>12900</v>
       </c>
       <c r="F49" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="G49" s="3">
-        <v>14800</v>
+        <v>14500</v>
       </c>
       <c r="H49" s="3">
-        <v>600</v>
+        <v>15300</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1984,28 +2104,31 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,31 +2159,34 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>217900</v>
+        <v>208300</v>
       </c>
       <c r="E54" s="3">
-        <v>199600</v>
+        <v>226100</v>
       </c>
       <c r="F54" s="3">
-        <v>194600</v>
+        <v>207100</v>
       </c>
       <c r="G54" s="3">
-        <v>96500</v>
+        <v>201900</v>
       </c>
       <c r="H54" s="3">
-        <v>96500</v>
+        <v>100100</v>
       </c>
       <c r="I54" s="3">
-        <v>74800</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
+        <v>100100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>77600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,31 +2226,32 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27000</v>
+        <v>15200</v>
       </c>
       <c r="E57" s="3">
-        <v>15700</v>
+        <v>28000</v>
       </c>
       <c r="F57" s="3">
-        <v>15000</v>
+        <v>16300</v>
       </c>
       <c r="G57" s="3">
-        <v>10900</v>
+        <v>15600</v>
       </c>
       <c r="H57" s="3">
-        <v>21100</v>
+        <v>11300</v>
       </c>
       <c r="I57" s="3">
-        <v>18700</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
+        <v>21900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>19500</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
@@ -2128,31 +2259,34 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
-        <v>4000</v>
-      </c>
       <c r="G58" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="H58" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="I58" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+        <v>4300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2160,31 +2294,34 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18800</v>
+        <v>17200</v>
       </c>
       <c r="E59" s="3">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="F59" s="3">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="G59" s="3">
-        <v>92200</v>
+        <v>16100</v>
       </c>
       <c r="H59" s="3">
-        <v>93300</v>
+        <v>95700</v>
       </c>
       <c r="I59" s="3">
-        <v>84900</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+        <v>96800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>88100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -2192,31 +2329,34 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46600</v>
+        <v>34000</v>
       </c>
       <c r="E60" s="3">
-        <v>30400</v>
+        <v>48400</v>
       </c>
       <c r="F60" s="3">
-        <v>34500</v>
+        <v>31600</v>
       </c>
       <c r="G60" s="3">
-        <v>107500</v>
+        <v>35800</v>
       </c>
       <c r="H60" s="3">
-        <v>118500</v>
+        <v>111600</v>
       </c>
       <c r="I60" s="3">
-        <v>105100</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
+        <v>122900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>109100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2236,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>1600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2256,8 +2399,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2265,31 +2411,34 @@
         <v>3200</v>
       </c>
       <c r="E62" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="F62" s="3">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="G62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
-        <v>200</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,31 +2539,34 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>49200</v>
+        <v>36300</v>
       </c>
       <c r="E66" s="3">
-        <v>33000</v>
+        <v>51100</v>
       </c>
       <c r="F66" s="3">
-        <v>37400</v>
+        <v>34300</v>
       </c>
       <c r="G66" s="3">
-        <v>109200</v>
+        <v>38800</v>
       </c>
       <c r="H66" s="3">
-        <v>117100</v>
+        <v>113300</v>
       </c>
       <c r="I66" s="3">
-        <v>104600</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
+        <v>121500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>108600</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,31 +2729,34 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41800</v>
+        <v>-47200</v>
       </c>
       <c r="E72" s="3">
-        <v>-43300</v>
+        <v>-43400</v>
       </c>
       <c r="F72" s="3">
-        <v>-36300</v>
+        <v>-44900</v>
       </c>
       <c r="G72" s="3">
-        <v>-32600</v>
+        <v>-37700</v>
       </c>
       <c r="H72" s="3">
-        <v>-28600</v>
+        <v>-33800</v>
       </c>
       <c r="I72" s="3">
-        <v>-30800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
+        <v>-29700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-32000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,31 +2869,34 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>168700</v>
+        <v>172000</v>
       </c>
       <c r="E76" s="3">
-        <v>166600</v>
+        <v>175000</v>
       </c>
       <c r="F76" s="3">
-        <v>157200</v>
+        <v>172900</v>
       </c>
       <c r="G76" s="3">
-        <v>-12700</v>
+        <v>163100</v>
       </c>
       <c r="H76" s="3">
-        <v>-20600</v>
+        <v>-13200</v>
       </c>
       <c r="I76" s="3">
-        <v>-29800</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
+        <v>-21400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-31000</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1500</v>
+        <v>-3800</v>
       </c>
       <c r="E81" s="3">
-        <v>-7000</v>
+        <v>1600</v>
       </c>
       <c r="F81" s="3">
-        <v>-3700</v>
+        <v>-7300</v>
       </c>
       <c r="G81" s="3">
         <v>-3900</v>
       </c>
       <c r="H81" s="3">
-        <v>2200</v>
+        <v>-4100</v>
       </c>
       <c r="I81" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>-9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2847,15 +3046,15 @@
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="3">
-        <v>500</v>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H83" s="3">
+        <v>600</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,28 +3239,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12600</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
+        <v>-6900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>13100</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="3">
-        <v>-7700</v>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H89" s="3">
-        <v>11600</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
+        <v>-8000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>12000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3085,15 +3306,15 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,29 +3394,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+        <v>-27100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1300</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,28 +3584,31 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="3">
-        <v>-1200</v>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H100" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
+        <v>-1300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-3500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -3373,17 +3619,20 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3399,34 +3648,37 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11100</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
+        <v>-15600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>11500</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="3">
-        <v>-9500</v>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H102" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
+        <v>-9800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>8400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
@@ -3435,6 +3687,9 @@
         <v>8</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RUHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RUHN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>RUHN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,194 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33100</v>
+        <v>37800</v>
       </c>
       <c r="E8" s="3">
-        <v>70000</v>
+        <v>42700</v>
       </c>
       <c r="F8" s="3">
-        <v>39600</v>
+        <v>34700</v>
       </c>
       <c r="G8" s="3">
-        <v>45400</v>
+        <v>73300</v>
       </c>
       <c r="H8" s="3">
-        <v>34500</v>
+        <v>41500</v>
       </c>
       <c r="I8" s="3">
+        <v>47600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K8" s="3">
         <v>56000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>34600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>32600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>28200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20900</v>
+        <v>22500</v>
       </c>
       <c r="E9" s="3">
-        <v>44600</v>
+        <v>26300</v>
       </c>
       <c r="F9" s="3">
-        <v>22300</v>
+        <v>21900</v>
       </c>
       <c r="G9" s="3">
-        <v>29200</v>
+        <v>46700</v>
       </c>
       <c r="H9" s="3">
-        <v>26400</v>
+        <v>23400</v>
       </c>
       <c r="I9" s="3">
+        <v>30600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K9" s="3">
         <v>34500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>22800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>24500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>22100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12200</v>
+        <v>15300</v>
       </c>
       <c r="E10" s="3">
-        <v>25400</v>
+        <v>16300</v>
       </c>
       <c r="F10" s="3">
-        <v>17300</v>
+        <v>12800</v>
       </c>
       <c r="G10" s="3">
-        <v>16200</v>
+        <v>26600</v>
       </c>
       <c r="H10" s="3">
+        <v>18100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K10" s="3">
+        <v>21400</v>
+      </c>
+      <c r="L10" s="3">
+        <v>11800</v>
+      </c>
+      <c r="M10" s="3">
         <v>8100</v>
       </c>
-      <c r="I10" s="3">
-        <v>21400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>11800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>8100</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>8100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -945,31 +985,37 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>38100</v>
+        <v>42900</v>
       </c>
       <c r="E17" s="3">
-        <v>68700</v>
+        <v>52500</v>
       </c>
       <c r="F17" s="3">
-        <v>49000</v>
+        <v>39900</v>
       </c>
       <c r="G17" s="3">
-        <v>49400</v>
+        <v>72000</v>
       </c>
       <c r="H17" s="3">
-        <v>39400</v>
+        <v>51400</v>
       </c>
       <c r="I17" s="3">
+        <v>51700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>41300</v>
+      </c>
+      <c r="K17" s="3">
         <v>53800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>77400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>36700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>56900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="E18" s="3">
-        <v>1300</v>
+        <v>-9800</v>
       </c>
       <c r="F18" s="3">
-        <v>-9400</v>
+        <v>-5200</v>
       </c>
       <c r="G18" s="3">
-        <v>-4000</v>
+        <v>1400</v>
       </c>
       <c r="H18" s="3">
-        <v>-4900</v>
+        <v>-9900</v>
       </c>
       <c r="I18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-42800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>-8500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,98 +1143,112 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
-      </c>
       <c r="H20" s="3">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>40700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-3500</v>
+        <v>-4900</v>
       </c>
       <c r="E21" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="I21" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K21" s="3">
         <v>2300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1182,78 +1262,96 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="J23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>400</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
-        <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>500</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-9800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>-9100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3800</v>
+        <v>-4700</v>
       </c>
       <c r="E27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
-      </c>
       <c r="H32" s="3">
-        <v>-1100</v>
+        <v>-1900</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="J32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-40700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3800</v>
+        <v>-4700</v>
       </c>
       <c r="E33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3900</v>
-      </c>
       <c r="H33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3800</v>
+        <v>-4700</v>
       </c>
       <c r="E35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3900</v>
-      </c>
       <c r="H35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,63 +1879,71 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>104300</v>
+        <v>100900</v>
       </c>
       <c r="E41" s="3">
-        <v>119700</v>
+        <v>119300</v>
       </c>
       <c r="F41" s="3">
-        <v>108300</v>
+        <v>109300</v>
       </c>
       <c r="G41" s="3">
-        <v>103600</v>
+        <v>125400</v>
       </c>
       <c r="H41" s="3">
-        <v>13100</v>
+        <v>113500</v>
       </c>
       <c r="I41" s="3">
+        <v>108600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K41" s="3">
         <v>22700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>15900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11100</v>
+        <v>7400</v>
       </c>
       <c r="E42" s="3">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="F42" s="3">
-        <v>2900</v>
+        <v>11600</v>
       </c>
       <c r="G42" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>3300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1777,253 +1957,301 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13500</v>
+        <v>21300</v>
       </c>
       <c r="E43" s="3">
-        <v>14400</v>
+        <v>18200</v>
       </c>
       <c r="F43" s="3">
         <v>14100</v>
       </c>
       <c r="G43" s="3">
-        <v>10500</v>
+        <v>15100</v>
       </c>
       <c r="H43" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>8700</v>
+      </c>
+      <c r="L43" s="3">
         <v>10400</v>
       </c>
-      <c r="I43" s="3">
-        <v>8700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>10400</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21100</v>
+        <v>18100</v>
       </c>
       <c r="E44" s="3">
-        <v>28900</v>
+        <v>18400</v>
       </c>
       <c r="F44" s="3">
-        <v>25200</v>
+        <v>22100</v>
       </c>
       <c r="G44" s="3">
-        <v>28200</v>
+        <v>30300</v>
       </c>
       <c r="H44" s="3">
-        <v>32000</v>
+        <v>26400</v>
       </c>
       <c r="I44" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K44" s="3">
         <v>42100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>43300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6200</v>
+        <v>5300</v>
       </c>
       <c r="E45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I45" s="3">
         <v>6900</v>
       </c>
-      <c r="F45" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>6600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K45" s="3">
         <v>6700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>156300</v>
+        <v>152900</v>
       </c>
       <c r="E46" s="3">
-        <v>173200</v>
+        <v>162700</v>
       </c>
       <c r="F46" s="3">
-        <v>155600</v>
+        <v>163800</v>
       </c>
       <c r="G46" s="3">
-        <v>151900</v>
+        <v>181400</v>
       </c>
       <c r="H46" s="3">
-        <v>62200</v>
+        <v>162900</v>
       </c>
       <c r="I46" s="3">
+        <v>159100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K46" s="3">
         <v>80200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>76000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12700</v>
+        <v>13500</v>
       </c>
       <c r="E47" s="3">
-        <v>12700</v>
+        <v>13500</v>
       </c>
       <c r="F47" s="3">
-        <v>12700</v>
+        <v>13300</v>
       </c>
       <c r="G47" s="3">
-        <v>12700</v>
+        <v>13300</v>
       </c>
       <c r="H47" s="3">
-        <v>1100</v>
+        <v>13300</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="J47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26600</v>
+        <v>35500</v>
       </c>
       <c r="E48" s="3">
-        <v>26900</v>
+        <v>33300</v>
       </c>
       <c r="F48" s="3">
-        <v>24700</v>
+        <v>27900</v>
       </c>
       <c r="G48" s="3">
-        <v>22300</v>
+        <v>28100</v>
       </c>
       <c r="H48" s="3">
-        <v>21200</v>
+        <v>25900</v>
       </c>
       <c r="I48" s="3">
+        <v>23300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K48" s="3">
         <v>19100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12100</v>
+        <v>6400</v>
       </c>
       <c r="E49" s="3">
-        <v>12900</v>
+        <v>5900</v>
       </c>
       <c r="F49" s="3">
-        <v>13700</v>
+        <v>12700</v>
       </c>
       <c r="G49" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="H49" s="3">
-        <v>15300</v>
+        <v>14400</v>
       </c>
       <c r="I49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2326,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2104,31 +2344,37 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
+        <v>500</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
-        <v>200</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>208300</v>
+        <v>208700</v>
       </c>
       <c r="E54" s="3">
-        <v>226100</v>
+        <v>215800</v>
       </c>
       <c r="F54" s="3">
-        <v>207100</v>
+        <v>218100</v>
       </c>
       <c r="G54" s="3">
-        <v>201900</v>
+        <v>236800</v>
       </c>
       <c r="H54" s="3">
+        <v>217000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>211500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>104900</v>
+      </c>
+      <c r="K54" s="3">
         <v>100100</v>
       </c>
-      <c r="I54" s="3">
-        <v>100100</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>77600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,148 +2487,174 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15200</v>
+        <v>16800</v>
       </c>
       <c r="E57" s="3">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="F57" s="3">
+        <v>15900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>29400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I57" s="3">
         <v>16300</v>
       </c>
-      <c r="G57" s="3">
-        <v>15600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>11300</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K57" s="3">
         <v>21900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>19500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4200</v>
-      </c>
       <c r="H58" s="3">
-        <v>4600</v>
+        <v>1400</v>
       </c>
       <c r="I58" s="3">
         <v>4300</v>
       </c>
       <c r="J58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17200</v>
+        <v>20800</v>
       </c>
       <c r="E59" s="3">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="F59" s="3">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="G59" s="3">
-        <v>16100</v>
+        <v>20400</v>
       </c>
       <c r="H59" s="3">
-        <v>95700</v>
+        <v>14600</v>
       </c>
       <c r="I59" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K59" s="3">
         <v>96800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>88100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34000</v>
+        <v>37600</v>
       </c>
       <c r="E60" s="3">
-        <v>48400</v>
+        <v>39300</v>
       </c>
       <c r="F60" s="3">
-        <v>31600</v>
+        <v>35600</v>
       </c>
       <c r="G60" s="3">
-        <v>35800</v>
+        <v>50700</v>
       </c>
       <c r="H60" s="3">
-        <v>111600</v>
+        <v>33100</v>
       </c>
       <c r="I60" s="3">
+        <v>37500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K60" s="3">
         <v>122900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>109100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2382,16 +2668,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2402,43 +2688,55 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3200</v>
+        <v>7700</v>
       </c>
       <c r="E62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F62" s="3">
         <v>3400</v>
       </c>
-      <c r="F62" s="3">
-        <v>3300</v>
-      </c>
       <c r="G62" s="3">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>300</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36300</v>
+        <v>45300</v>
       </c>
       <c r="E66" s="3">
-        <v>51100</v>
+        <v>44700</v>
       </c>
       <c r="F66" s="3">
-        <v>34300</v>
+        <v>38000</v>
       </c>
       <c r="G66" s="3">
-        <v>38800</v>
+        <v>53500</v>
       </c>
       <c r="H66" s="3">
-        <v>113300</v>
+        <v>35900</v>
       </c>
       <c r="I66" s="3">
+        <v>40700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>118600</v>
+      </c>
+      <c r="K66" s="3">
         <v>121500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>108600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-47200</v>
+        <v>-62800</v>
       </c>
       <c r="E72" s="3">
-        <v>-43400</v>
+        <v>-58100</v>
       </c>
       <c r="F72" s="3">
-        <v>-44900</v>
+        <v>-49500</v>
       </c>
       <c r="G72" s="3">
-        <v>-37700</v>
+        <v>-45400</v>
       </c>
       <c r="H72" s="3">
-        <v>-33800</v>
+        <v>-47100</v>
       </c>
       <c r="I72" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-29700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-32000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>172000</v>
+        <v>163300</v>
       </c>
       <c r="E76" s="3">
-        <v>175000</v>
+        <v>171100</v>
       </c>
       <c r="F76" s="3">
-        <v>172900</v>
+        <v>180200</v>
       </c>
       <c r="G76" s="3">
-        <v>163100</v>
+        <v>183300</v>
       </c>
       <c r="H76" s="3">
-        <v>-13200</v>
+        <v>181100</v>
       </c>
       <c r="I76" s="3">
+        <v>170800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-21400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-31000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3800</v>
+        <v>-4700</v>
       </c>
       <c r="E81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3900</v>
-      </c>
       <c r="H81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3049,26 +3447,32 @@
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3670,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="E89" s="3">
-        <v>13100</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="I89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K89" s="3">
         <v>12000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3309,26 +3751,32 @@
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3851,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-27100</v>
+        <v>-8600</v>
       </c>
       <c r="E94" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,58 +4073,70 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>18200</v>
+        <v>-2700</v>
       </c>
       <c r="E100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-3500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>-400</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>300</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3651,45 +4149,57 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15600</v>
+        <v>-18800</v>
       </c>
       <c r="E102" s="3">
-        <v>11500</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="I102" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="G102" s="3">
+        <v>12100</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K102" s="3">
         <v>8400</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RUHN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RUHN_QTR_FIN.xlsx
@@ -734,25 +734,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>37800</v>
+        <v>38000</v>
       </c>
       <c r="E8" s="3">
-        <v>42700</v>
+        <v>42800</v>
       </c>
       <c r="F8" s="3">
-        <v>34700</v>
+        <v>34900</v>
       </c>
       <c r="G8" s="3">
-        <v>73300</v>
+        <v>73700</v>
       </c>
       <c r="H8" s="3">
-        <v>41500</v>
+        <v>41700</v>
       </c>
       <c r="I8" s="3">
-        <v>47600</v>
+        <v>47800</v>
       </c>
       <c r="J8" s="3">
-        <v>36100</v>
+        <v>36300</v>
       </c>
       <c r="K8" s="3">
         <v>56000</v>
@@ -775,25 +775,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22500</v>
+        <v>22600</v>
       </c>
       <c r="E9" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="F9" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="G9" s="3">
-        <v>46700</v>
+        <v>46900</v>
       </c>
       <c r="H9" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="I9" s="3">
-        <v>30600</v>
+        <v>30700</v>
       </c>
       <c r="J9" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="K9" s="3">
         <v>34500</v>
@@ -816,19 +816,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="E10" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="F10" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="G10" s="3">
-        <v>26600</v>
+        <v>26700</v>
       </c>
       <c r="H10" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="I10" s="3">
         <v>17000</v>
@@ -1052,25 +1052,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42900</v>
+        <v>43100</v>
       </c>
       <c r="E17" s="3">
-        <v>52500</v>
+        <v>52700</v>
       </c>
       <c r="F17" s="3">
-        <v>39900</v>
+        <v>40100</v>
       </c>
       <c r="G17" s="3">
-        <v>72000</v>
+        <v>72300</v>
       </c>
       <c r="H17" s="3">
-        <v>51400</v>
+        <v>51600</v>
       </c>
       <c r="I17" s="3">
-        <v>51700</v>
+        <v>52000</v>
       </c>
       <c r="J17" s="3">
-        <v>41300</v>
+        <v>41500</v>
       </c>
       <c r="K17" s="3">
         <v>53800</v>
@@ -1093,10 +1093,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E18" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="F18" s="3">
         <v>-5200</v>
@@ -1157,7 +1157,7 @@
         <v>1600</v>
       </c>
       <c r="F20" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G20" s="3">
         <v>800</v>
@@ -1274,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="E23" s="3">
         <v>-8300</v>
@@ -1415,7 +1415,7 @@
         <v>-4300</v>
       </c>
       <c r="J26" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K26" s="3">
         <v>1500</v>
@@ -1438,7 +1438,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E27" s="3">
         <v>-8600</v>
@@ -1450,7 +1450,7 @@
         <v>1600</v>
       </c>
       <c r="H27" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="I27" s="3">
         <v>-4100</v>
@@ -1649,7 +1649,7 @@
         <v>-1600</v>
       </c>
       <c r="F32" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G32" s="3">
         <v>-800</v>
@@ -1684,7 +1684,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E33" s="3">
         <v>-8600</v>
@@ -1696,7 +1696,7 @@
         <v>1600</v>
       </c>
       <c r="H33" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="I33" s="3">
         <v>-4100</v>
@@ -1766,7 +1766,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E35" s="3">
         <v>-8600</v>
@@ -1778,7 +1778,7 @@
         <v>1600</v>
       </c>
       <c r="H35" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="I35" s="3">
         <v>-4100</v>
@@ -1887,22 +1887,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100900</v>
+        <v>101300</v>
       </c>
       <c r="E41" s="3">
-        <v>119300</v>
+        <v>119800</v>
       </c>
       <c r="F41" s="3">
-        <v>109300</v>
+        <v>109800</v>
       </c>
       <c r="G41" s="3">
-        <v>125400</v>
+        <v>125900</v>
       </c>
       <c r="H41" s="3">
-        <v>113500</v>
+        <v>113900</v>
       </c>
       <c r="I41" s="3">
-        <v>108600</v>
+        <v>109000</v>
       </c>
       <c r="J41" s="3">
         <v>13700</v>
@@ -1934,16 +1934,16 @@
         <v>800</v>
       </c>
       <c r="F42" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="G42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H42" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I42" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1969,19 +1969,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21300</v>
+        <v>21400</v>
       </c>
       <c r="E43" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="F43" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="G43" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="H43" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="I43" s="3">
         <v>11000</v>
@@ -2013,22 +2013,22 @@
         <v>18100</v>
       </c>
       <c r="E44" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="F44" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="G44" s="3">
-        <v>30300</v>
+        <v>30400</v>
       </c>
       <c r="H44" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="I44" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="J44" s="3">
-        <v>33500</v>
+        <v>33600</v>
       </c>
       <c r="K44" s="3">
         <v>42100</v>
@@ -2057,19 +2057,19 @@
         <v>6000</v>
       </c>
       <c r="F45" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="G45" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="H45" s="3">
         <v>5200</v>
       </c>
       <c r="I45" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="J45" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="K45" s="3">
         <v>6700</v>
@@ -2092,25 +2092,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>152900</v>
+        <v>153600</v>
       </c>
       <c r="E46" s="3">
-        <v>162700</v>
+        <v>163400</v>
       </c>
       <c r="F46" s="3">
-        <v>163800</v>
+        <v>164500</v>
       </c>
       <c r="G46" s="3">
-        <v>181400</v>
+        <v>182200</v>
       </c>
       <c r="H46" s="3">
-        <v>162900</v>
+        <v>163700</v>
       </c>
       <c r="I46" s="3">
-        <v>159100</v>
+        <v>159800</v>
       </c>
       <c r="J46" s="3">
-        <v>65200</v>
+        <v>65500</v>
       </c>
       <c r="K46" s="3">
         <v>80200</v>
@@ -2139,16 +2139,16 @@
         <v>13500</v>
       </c>
       <c r="F47" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="G47" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="H47" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="I47" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="J47" s="3">
         <v>1200</v>
@@ -2174,25 +2174,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35500</v>
+        <v>35600</v>
       </c>
       <c r="E48" s="3">
-        <v>33300</v>
+        <v>33500</v>
       </c>
       <c r="F48" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="G48" s="3">
-        <v>28100</v>
+        <v>28300</v>
       </c>
       <c r="H48" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="I48" s="3">
-        <v>23300</v>
+        <v>23400</v>
       </c>
       <c r="J48" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="K48" s="3">
         <v>19100</v>
@@ -2215,25 +2215,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E49" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F49" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="G49" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="H49" s="3">
         <v>14400</v>
       </c>
       <c r="I49" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="J49" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="K49" s="3">
         <v>600</v>
@@ -2420,25 +2420,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>208700</v>
+        <v>209600</v>
       </c>
       <c r="E54" s="3">
-        <v>215800</v>
+        <v>216700</v>
       </c>
       <c r="F54" s="3">
-        <v>218100</v>
+        <v>219100</v>
       </c>
       <c r="G54" s="3">
-        <v>236800</v>
+        <v>237900</v>
       </c>
       <c r="H54" s="3">
-        <v>217000</v>
+        <v>217900</v>
       </c>
       <c r="I54" s="3">
-        <v>211500</v>
+        <v>212400</v>
       </c>
       <c r="J54" s="3">
-        <v>104900</v>
+        <v>105300</v>
       </c>
       <c r="K54" s="3">
         <v>100100</v>
@@ -2495,22 +2495,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="E57" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="F57" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="G57" s="3">
-        <v>29400</v>
+        <v>29500</v>
       </c>
       <c r="H57" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="I57" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="J57" s="3">
         <v>11900</v>
@@ -2551,7 +2551,7 @@
         <v>1400</v>
       </c>
       <c r="I58" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J58" s="3">
         <v>4800</v>
@@ -2577,25 +2577,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="E59" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="F59" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="G59" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="H59" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="I59" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="J59" s="3">
-        <v>100200</v>
+        <v>100600</v>
       </c>
       <c r="K59" s="3">
         <v>96800</v>
@@ -2618,25 +2618,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37600</v>
+        <v>37800</v>
       </c>
       <c r="E60" s="3">
-        <v>39300</v>
+        <v>39400</v>
       </c>
       <c r="F60" s="3">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="G60" s="3">
-        <v>50700</v>
+        <v>50900</v>
       </c>
       <c r="H60" s="3">
-        <v>33100</v>
+        <v>33200</v>
       </c>
       <c r="I60" s="3">
-        <v>37500</v>
+        <v>37700</v>
       </c>
       <c r="J60" s="3">
-        <v>116900</v>
+        <v>117400</v>
       </c>
       <c r="K60" s="3">
         <v>122900</v>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J61" s="3">
         <v>1700</v>
@@ -2864,25 +2864,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45300</v>
+        <v>45500</v>
       </c>
       <c r="E66" s="3">
-        <v>44700</v>
+        <v>44900</v>
       </c>
       <c r="F66" s="3">
-        <v>38000</v>
+        <v>38200</v>
       </c>
       <c r="G66" s="3">
-        <v>53500</v>
+        <v>53700</v>
       </c>
       <c r="H66" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="I66" s="3">
-        <v>40700</v>
+        <v>40800</v>
       </c>
       <c r="J66" s="3">
-        <v>118600</v>
+        <v>119200</v>
       </c>
       <c r="K66" s="3">
         <v>121500</v>
@@ -3086,25 +3086,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-62800</v>
+        <v>-63100</v>
       </c>
       <c r="E72" s="3">
-        <v>-58100</v>
+        <v>-58300</v>
       </c>
       <c r="F72" s="3">
-        <v>-49500</v>
+        <v>-49700</v>
       </c>
       <c r="G72" s="3">
-        <v>-45400</v>
+        <v>-45600</v>
       </c>
       <c r="H72" s="3">
-        <v>-47100</v>
+        <v>-47300</v>
       </c>
       <c r="I72" s="3">
-        <v>-39500</v>
+        <v>-39600</v>
       </c>
       <c r="J72" s="3">
-        <v>-35400</v>
+        <v>-35500</v>
       </c>
       <c r="K72" s="3">
         <v>-29700</v>
@@ -3250,22 +3250,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>163300</v>
+        <v>164100</v>
       </c>
       <c r="E76" s="3">
-        <v>171100</v>
+        <v>171800</v>
       </c>
       <c r="F76" s="3">
-        <v>180200</v>
+        <v>180900</v>
       </c>
       <c r="G76" s="3">
-        <v>183300</v>
+        <v>184100</v>
       </c>
       <c r="H76" s="3">
-        <v>181100</v>
+        <v>181900</v>
       </c>
       <c r="I76" s="3">
-        <v>170800</v>
+        <v>171500</v>
       </c>
       <c r="J76" s="3">
         <v>-13800</v>
@@ -3378,7 +3378,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E81" s="3">
         <v>-8600</v>
@@ -3390,7 +3390,7 @@
         <v>1600</v>
       </c>
       <c r="H81" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="I81" s="3">
         <v>-4100</v>
@@ -3688,7 +3688,7 @@
         <v>1800</v>
       </c>
       <c r="F89" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="G89" s="3">
         <v>13700</v>
@@ -3863,13 +3863,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="E94" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="F94" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="G94" s="3">
         <v>-1300</v>
@@ -4091,7 +4091,7 @@
         <v>-1700</v>
       </c>
       <c r="F100" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
@@ -4167,13 +4167,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-18800</v>
+        <v>-18900</v>
       </c>
       <c r="E102" s="3">
         <v>10000</v>
       </c>
       <c r="F102" s="3">
-        <v>-16300</v>
+        <v>-16400</v>
       </c>
       <c r="G102" s="3">
         <v>12100</v>
